--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -25,27 +25,38 @@
     <t>SelectItem</t>
   </si>
   <si>
-    <t>Anandraviqa@gmail.com</t>
+    <t>ItemAssertion</t>
+  </si>
+  <si>
+    <t>anandraviqa@gmail.com</t>
   </si>
   <si>
     <t>Testing@123</t>
   </si>
   <si>
-    <t>65-inch tv</t>
-  </si>
-  <si>
-    <t>Samsung 163 cm (65 Inches) 4K Ultra HD Smart LED TV UA65RU7100KXXL (Black) (2019 Model)']</t>
+    <t>Saffola</t>
+  </si>
+  <si>
+    <t>saffola gold 1 litre pouch</t>
+  </si>
+  <si>
+    <t>Saffola Gold, Pro Healthy Lifestyle Edible Oil Pouch 1 L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b/>
@@ -53,17 +64,15 @@
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="8.0"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,21 +102,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -329,35 +341,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="DemonstrationTest" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -56,17 +56,12 @@
     <font>
       <b/>
       <sz val="8.0"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-    </font>
-    <font/>
-    <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -102,24 +97,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,13 +359,13 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
